--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>940599.1380059873</v>
+        <v>937897.9213545304</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,58 +674,58 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="I2" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>97.26234557100793</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>72.36698404190653</v>
       </c>
     </row>
     <row r="3">
@@ -738,19 +738,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.66197659284158</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>135.1414145084527</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>84.26548458882223</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>77.75392192072599</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897706</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>357.2490897719252</v>
+        <v>383.6877278154288</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660377</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>95.7768212573593</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333229</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713976</v>
+        <v>4.360182258714076</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>152.2365599257063</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139.0919294162012</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>87.60336766488317</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643678</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>119.1307056315186</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422209</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>188.075780593902</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.5235404623164</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.5761046894319</v>
       </c>
       <c r="W10" t="n">
-        <v>239.9753211196704</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>304.0065125199814</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>165.0084189131203</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>159.2261435461965</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793278</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.800047274035</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>240.3363440419443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>59.66990246485244</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.24347904696687</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922657</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456782</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>3.006892987835017</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699816</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>68.07731664460619</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605715775</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>43.73846614325537</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>9.146142788179368</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>108.2950343703276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,7 +3907,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>120.7871326503973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3977,13 +3977,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>27.77749086859591</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.8554133656</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>423.8554133656</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>423.8554133656</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>416.9099126163966</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052544</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030606</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>956.6107264999559</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>956.6107264999559</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="W2" t="n">
-        <v>690.233069932778</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X2" t="n">
-        <v>690.233069932778</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.8554133656</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.4937968510533</v>
+        <v>197.1648447922847</v>
       </c>
       <c r="C3" t="n">
-        <v>158.4937968510533</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>158.4937968510533</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4407,52 +4407,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>769.7127423083969</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>534.5606340766542</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>534.5606340766542</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>326.7091338711213</v>
+        <v>365.3801818123527</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.7091338711213</v>
+        <v>365.3801818123527</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.2137614999409</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>106.2137614999409</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>106.2137614999409</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>106.2137614999409</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>106.2137614999409</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
         <v>21.09711040012049</v>
@@ -4501,7 +4501,7 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165359</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165359</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>593.383997210649</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="W4" t="n">
-        <v>327.006340643471</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>327.006340643471</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>106.2137614999409</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1148.151071197598</v>
+        <v>1136.345205654761</v>
       </c>
       <c r="C5" t="n">
-        <v>1148.151071197598</v>
+        <v>816.5910675842854</v>
       </c>
       <c r="D5" t="n">
-        <v>789.8853725908475</v>
+        <v>816.5910675842854</v>
       </c>
       <c r="E5" t="n">
-        <v>404.0971199926033</v>
+        <v>430.8028149860411</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631513</v>
+        <v>43.23945355631505</v>
       </c>
       <c r="G5" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="H5" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="I5" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275101</v>
+        <v>93.76641159275067</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245552</v>
+        <v>239.0325989245545</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825615</v>
+        <v>456.14991148256</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748836</v>
+        <v>729.4041931748816</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202377</v>
+        <v>1011.693823202374</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798409</v>
+        <v>1264.916654798406</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189406</v>
+        <v>1446.535482189402</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.75091126172</v>
+        <v>1534.750911261715</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.75091126172</v>
+        <v>1534.750911261715</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.75091126172</v>
+        <v>1389.996673518243</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.75091126172</v>
+        <v>1389.996673518243</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.75091126172</v>
+        <v>1136.345205654761</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.75091126172</v>
+        <v>1136.345205654761</v>
       </c>
       <c r="W5" t="n">
-        <v>1534.75091126172</v>
+        <v>1136.345205654761</v>
       </c>
       <c r="X5" t="n">
-        <v>1534.75091126172</v>
+        <v>1136.345205654761</v>
       </c>
       <c r="Y5" t="n">
-        <v>1534.75091126172</v>
+        <v>1136.345205654761</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>648.2768342062496</v>
+        <v>264.6115818588702</v>
       </c>
       <c r="C6" t="n">
-        <v>473.8238049251227</v>
+        <v>264.6115818588702</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8893952638714</v>
+        <v>264.6115818588702</v>
       </c>
       <c r="E6" t="n">
-        <v>165.6519402584159</v>
+        <v>167.8673179625477</v>
       </c>
       <c r="F6" t="n">
-        <v>165.6519402584159</v>
+        <v>167.8673179625477</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878731</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471034</v>
+        <v>49.44206107563368</v>
       </c>
       <c r="K6" t="n">
-        <v>180.9835516516501</v>
+        <v>159.6385680169435</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830016</v>
+        <v>354.1339118482946</v>
       </c>
       <c r="M6" t="n">
-        <v>621.802656153747</v>
+        <v>600.4576725190395</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259688</v>
+        <v>889.0545187259656</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891487</v>
+        <v>1111.317965891483</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090175</v>
+        <v>1270.37091109017</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.75091126172</v>
+        <v>1534.750911261715</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757968</v>
+        <v>1530.346686757964</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.878273152063</v>
+        <v>1385.878273152059</v>
       </c>
       <c r="T6" t="n">
-        <v>1385.878273152063</v>
+        <v>1189.973630703743</v>
       </c>
       <c r="U6" t="n">
-        <v>1232.103970196804</v>
+        <v>961.8525470243474</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.103970196804</v>
+        <v>726.7004387926047</v>
       </c>
       <c r="W6" t="n">
-        <v>1232.103970196804</v>
+        <v>472.4630820644031</v>
       </c>
       <c r="X6" t="n">
-        <v>1024.252469991271</v>
+        <v>264.6115818588702</v>
       </c>
       <c r="Y6" t="n">
-        <v>816.4921712263176</v>
+        <v>264.6115818588702</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.5556820750036</v>
+        <v>236.9104562721242</v>
       </c>
       <c r="C7" t="n">
-        <v>32.6194991470967</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="D7" t="n">
-        <v>32.6194991470967</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="E7" t="n">
-        <v>32.6194991470967</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="F7" t="n">
-        <v>32.6194991470967</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="G7" t="n">
-        <v>32.6194991470967</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="H7" t="n">
-        <v>32.6194991470967</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>32.6194991470967</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="J7" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223264</v>
+        <v>157.4322756223262</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830384</v>
+        <v>375.1387655830379</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388145</v>
+        <v>615.0688576388138</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974815</v>
+        <v>854.7285647974805</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.07679889167</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.26700593402</v>
+        <v>1212.267005934019</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495181</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.86649040274</v>
+        <v>1113.866490402738</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.86649040274</v>
+        <v>910.3578444371271</v>
       </c>
       <c r="T7" t="n">
-        <v>1113.86649040274</v>
+        <v>685.6925863136717</v>
       </c>
       <c r="U7" t="n">
-        <v>824.726619579111</v>
+        <v>685.6925863136717</v>
       </c>
       <c r="V7" t="n">
-        <v>570.0421313732242</v>
+        <v>685.6925863136717</v>
       </c>
       <c r="W7" t="n">
-        <v>570.0421313732242</v>
+        <v>685.6925863136717</v>
       </c>
       <c r="X7" t="n">
-        <v>342.0525804752068</v>
+        <v>457.7030354156543</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.0525804752068</v>
+        <v>236.9104562721242</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042.715325395395</v>
+        <v>970.504798960113</v>
       </c>
       <c r="C8" t="n">
-        <v>1042.715325395395</v>
+        <v>601.5422820197014</v>
       </c>
       <c r="D8" t="n">
-        <v>1042.715325395395</v>
+        <v>243.2765834129509</v>
       </c>
       <c r="E8" t="n">
-        <v>656.9270727971507</v>
+        <v>243.2765834129509</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>236.3310826637474</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656475</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1042.715325395395</v>
+        <v>1357.104639024235</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.0678491612455</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>455.1316662333386</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210028</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253779</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.115628253779</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>805.7163139914852</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>805.7163139914852</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>805.7163139914852</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1671.583813784373</v>
+        <v>1485.490329133572</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.583813784373</v>
+        <v>1116.527812193161</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1116.527812193161</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793782</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
         <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706892</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565696</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535297</v>
@@ -5060,7 +5060,7 @@
         <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
         <v>3876.883295796037</v>
@@ -5078,13 +5078,13 @@
         <v>2988.4639147047</v>
       </c>
       <c r="W11" t="n">
-        <v>2821.788744085386</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2448.322985824307</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2058.183653848495</v>
+        <v>1872.090169197694</v>
       </c>
     </row>
     <row r="12">
@@ -5103,16 +5103,16 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
         <v>77.53766591592074</v>
@@ -5121,25 +5121,25 @@
         <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>889.4740370626171</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720356</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2401.180957052879</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2401.180957052879</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.7893828379999</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>666.8531999100931</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>516.7365604977574</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>368.8234669153643</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
         <v>77.53766591592074</v>
@@ -5197,52 +5197,52 @@
         <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344806</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742809</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177249</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1916.471636177249</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.637147746748</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.219977709787</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.23042681177</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.43784766824</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,16 +5297,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799073</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675715</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851784</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784064</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504993</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381635</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557704</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327649</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.932442825728</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133922</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098309991</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630046</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597628</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597628</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773697</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.708435085167</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572601</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449244</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>229.7425191625313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154068</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356196</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2311.15241352498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2091.550948547922</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.754138832765</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048581</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D34" t="n">
-        <v>594.8179559048581</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>446.9048623224649</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630047</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="35">
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
@@ -7135,10 +7135,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="38">
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D40" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703117</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400717</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>363.736961327736</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>215.8238677453429</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876694</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876694</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7826650753336</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>430.7826650753336</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797742</v>
@@ -7816,7 +7816,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
         <v>2035.089393279803</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637034</v>
+        <v>34.43939438637054</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.56058953000613</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000479</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241559</v>
+        <v>138.9393975111064</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>77.92385755228037</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>184.2325498042927</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>92.91149977763146</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811044</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459021</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>45.84813034729986</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>166.0397529241847</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253435</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.003342051661</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294965</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>142.4141550350962</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>10.85445046951739</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>112.9489693570384</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124966</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>101.6825818796759</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.469330230033</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>40.32043864788473</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.5498640939301</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.63391537253398</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>117.6435571543353</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>889476.1405344852</v>
+        <v>889476.140534485</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.967033217</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.967033217</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>978944.967033217</v>
+        <v>978944.9670332168</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.967033217</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>978944.9670332171</v>
+        <v>978944.9670332168</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>402924.084350918</v>
+        <v>402924.0843509178</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295031</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
         <v>443930.6298295034</v>
@@ -26366,19 +26366,19 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657058</v>
+        <v>132804.2190657047</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.072392939</v>
+        <v>265413.0723929402</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545774</v>
+        <v>313577.157354577</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704285</v>
+        <v>189308.2687704289</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417393</v>
+        <v>30877.42926417365</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204959</v>
+        <v>65018.34502049629</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273085</v>
+        <v>81897.40371273075</v>
       </c>
       <c r="N3" t="n">
         <v>49839.57413202355</v>
@@ -26418,10 +26418,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215494.7982664857</v>
+        <v>215494.798266486</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374607</v>
+        <v>140338.6838374606</v>
       </c>
       <c r="E4" t="n">
         <v>11061.61369214698</v>
@@ -26430,7 +26430,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179352</v>
@@ -26439,25 +26439,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179345</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179353</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667485</v>
+        <v>72593.65038667477</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738567</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542790.1759891235</v>
+        <v>-542790.1759891233</v>
       </c>
       <c r="C6" t="n">
-        <v>30680.30570648937</v>
+        <v>30680.30570649033</v>
       </c>
       <c r="D6" t="n">
-        <v>-47116.55524488848</v>
+        <v>-47116.55524488969</v>
       </c>
       <c r="E6" t="n">
-        <v>-6852.171763192091</v>
+        <v>-7073.30307716662</v>
       </c>
       <c r="F6" t="n">
-        <v>142332.7989833742</v>
+        <v>142298.0610579383</v>
       </c>
       <c r="G6" t="n">
-        <v>331641.0677538021</v>
+        <v>331606.3298283669</v>
       </c>
       <c r="H6" t="n">
-        <v>331641.0677538026</v>
+        <v>331606.3298283671</v>
       </c>
       <c r="I6" t="n">
-        <v>331641.0677538029</v>
+        <v>331606.329828367</v>
       </c>
       <c r="J6" t="n">
-        <v>262641.9133346887</v>
+        <v>262607.175409253</v>
       </c>
       <c r="K6" t="n">
-        <v>300763.638489629</v>
+        <v>300728.9005641932</v>
       </c>
       <c r="L6" t="n">
-        <v>266622.7227333068</v>
+        <v>266587.9848078706</v>
       </c>
       <c r="M6" t="n">
-        <v>249743.664041072</v>
+        <v>249708.9261156364</v>
       </c>
       <c r="N6" t="n">
-        <v>281801.4936217794</v>
+        <v>281766.7556963434</v>
       </c>
       <c r="O6" t="n">
-        <v>331641.0677538029</v>
+        <v>331606.3298283671</v>
       </c>
       <c r="P6" t="n">
-        <v>331641.0677538028</v>
+        <v>331606.329828367</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695738</v>
+        <v>717.331951169573</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154299</v>
+        <v>383.6877278154288</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>969.2208239490092</v>
@@ -26805,31 +26805,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000956</v>
+        <v>103.2769374000948</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479655</v>
+        <v>216.7329409479664</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974109</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267229</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139238</v>
+        <v>119.9738478139227</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846089</v>
+        <v>256.8971042846102</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="F4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139238</v>
+        <v>119.9738478139227</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846087</v>
+        <v>256.8971042846102</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="N4" t="n">
         <v>203.487464150639</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139238</v>
+        <v>119.9738478139227</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846089</v>
+        <v>256.8971042846102</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489703</v>
+        <v>328.6359918489701</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>153.8858223072746</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>313.8709546141471</v>
       </c>
     </row>
     <row r="3">
@@ -27458,19 +27458,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>156.0465223954742</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>90.71307299510192</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>82.61818244972434</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27585,25 +27585,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>208.769076415865</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508123692</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>49.6269559697862</v>
+        <v>23.18831792628259</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863706</v>
+        <v>99.30025118863719</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.86825919804164</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333231</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>73.60331291689545</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.74005076573613</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>79.64345343374467</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643777</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>218.8002651478094</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.0241623106376</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.561538634396129</v>
       </c>
       <c r="W10" t="n">
-        <v>46.54767721692056</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.112121497024236e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.651958652677422e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.179536633979296e-12</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365119</v>
+        <v>2.883746537365115</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579053</v>
+        <v>29.53316922579049</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817688</v>
+        <v>111.1756383817687</v>
       </c>
       <c r="J5" t="n">
-        <v>244.754382675693</v>
+        <v>244.7543826756927</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023585</v>
+        <v>366.8233736023581</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952464</v>
+        <v>455.0768316952459</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791133</v>
+        <v>506.3606591791127</v>
       </c>
       <c r="N5" t="n">
-        <v>514.554104028402</v>
+        <v>514.5541040284014</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974775</v>
+        <v>485.878849397477</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562761</v>
+        <v>414.6863567562756</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868877</v>
+        <v>311.4121838868873</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277618</v>
+        <v>181.1461434277616</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020771</v>
+        <v>65.71337422020764</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731581</v>
+        <v>12.6236004673158</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892095</v>
+        <v>0.2306997229892092</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270404</v>
+        <v>1.542940423270402</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316417</v>
+        <v>14.90155619316415</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189769</v>
+        <v>53.12316808189763</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862622</v>
+        <v>145.774033586262</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453793</v>
+        <v>249.151041945379</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438656</v>
+        <v>335.0143230438653</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874177</v>
+        <v>390.9459133874172</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189109</v>
+        <v>401.2930884189105</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348667</v>
+        <v>367.1047769348663</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190651</v>
+        <v>294.6339480190649</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739555</v>
+        <v>196.9549915739553</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392916</v>
+        <v>95.79765189392906</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399192</v>
+        <v>28.65944163399189</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989039</v>
+        <v>6.219132670989032</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730529</v>
+        <v>0.1015092383730528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141854</v>
+        <v>1.293549420141853</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5008302990794</v>
+        <v>11.50083029907939</v>
       </c>
       <c r="I7" t="n">
-        <v>38.9005589257205</v>
+        <v>38.90055892572046</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040291</v>
+        <v>91.453944004029</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401172</v>
+        <v>150.286923540117</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545444</v>
+        <v>192.3155201545442</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773272</v>
+        <v>202.769751377327</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022532</v>
+        <v>197.9483399022529</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669596</v>
+        <v>182.8373307669594</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960657</v>
+        <v>156.4489225960655</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266056</v>
+        <v>108.3171246266055</v>
       </c>
       <c r="R7" t="n">
-        <v>58.162685745651</v>
+        <v>58.16268574565093</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101758</v>
+        <v>22.54303853101755</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060648</v>
+        <v>5.526983886060642</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864668</v>
+        <v>0.0705572410986466</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,34 +31753,34 @@
         <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
         <v>303.5991401696629</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
         <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>267.5398078833327</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.7767623746036</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627653</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>139.5228722182835</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>639.8517673857158</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900668</v>
+        <v>63.7084781490064</v>
       </c>
       <c r="K5" t="n">
-        <v>146.733522557378</v>
+        <v>146.7335225573776</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252591</v>
+        <v>219.3104167252586</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518405</v>
+        <v>276.0144259518399</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318111</v>
+        <v>285.1410404318105</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757908</v>
+        <v>255.7806379757903</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010066</v>
+        <v>183.4533610010061</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243822</v>
+        <v>89.10649401243782</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960162</v>
+        <v>18.93640691959533</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710203</v>
+        <v>111.30960297102</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639914</v>
+        <v>196.4599432639911</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653994</v>
+        <v>248.8118794653989</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355776</v>
+        <v>291.5119658655819</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904223</v>
+        <v>224.5085324904219</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047349</v>
+        <v>160.6595406047346</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.050505223783</v>
+        <v>267.0505052237828</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142342</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148606</v>
+        <v>219.9055454148604</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391678</v>
+        <v>242.3536283391676</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814818</v>
+        <v>242.0805122814815</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809993</v>
+        <v>207.4224586809991</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.727481860959</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491126</v>
+        <v>22.15508137491113</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35264,10 +35264,10 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202789</v>
+        <v>474.3640795072295</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
         <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>136.1980957999995</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.7949882885821</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070198</v>
@@ -35574,19 +35574,19 @@
         <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>8.181160134950234</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>508.5100553023825</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
